--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8330293333333333</v>
+        <v>0.07686466666666666</v>
       </c>
       <c r="H2">
-        <v>2.499088</v>
+        <v>0.230594</v>
       </c>
       <c r="I2">
-        <v>0.178164400954882</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="J2">
-        <v>0.1781644009548819</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>93.726955928832</v>
+        <v>4.691942723609556</v>
       </c>
       <c r="R2">
-        <v>843.5426033594879</v>
+        <v>42.22748451248601</v>
       </c>
       <c r="S2">
-        <v>0.0583544174552621</v>
+        <v>0.01610976162180696</v>
       </c>
       <c r="T2">
-        <v>0.05835441745526208</v>
+        <v>0.01610976162180696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8330293333333333</v>
+        <v>0.07686466666666666</v>
       </c>
       <c r="H3">
-        <v>2.499088</v>
+        <v>0.230594</v>
       </c>
       <c r="I3">
-        <v>0.178164400954882</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="J3">
-        <v>0.1781644009548819</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>88.56306873566932</v>
+        <v>8.171825990934666</v>
       </c>
       <c r="R3">
-        <v>797.0676186210241</v>
+        <v>73.54643391841199</v>
       </c>
       <c r="S3">
-        <v>0.05513938047923458</v>
+        <v>0.02805792322792193</v>
       </c>
       <c r="T3">
-        <v>0.05513938047923458</v>
+        <v>0.02805792322792194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8330293333333333</v>
+        <v>0.07686466666666666</v>
       </c>
       <c r="H4">
-        <v>2.499088</v>
+        <v>0.230594</v>
       </c>
       <c r="I4">
-        <v>0.178164400954882</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="J4">
-        <v>0.1781644009548819</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>103.8718065145565</v>
+        <v>10.09528305393689</v>
       </c>
       <c r="R4">
-        <v>934.846258631008</v>
+        <v>90.85754748543199</v>
       </c>
       <c r="S4">
-        <v>0.06467060302038527</v>
+        <v>0.03466210332987095</v>
       </c>
       <c r="T4">
-        <v>0.06467060302038527</v>
+        <v>0.03466210332987096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3352123333333333</v>
+        <v>0.3352123333333334</v>
       </c>
       <c r="H5">
         <v>1.005637</v>
       </c>
       <c r="I5">
-        <v>0.07169363931284717</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="J5">
-        <v>0.07169363931284715</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>37.71587666356799</v>
+        <v>20.46189928941145</v>
       </c>
       <c r="R5">
-        <v>339.4428899721119</v>
+        <v>184.1570936047031</v>
       </c>
       <c r="S5">
-        <v>0.02348191072361494</v>
+        <v>0.07025582776685034</v>
       </c>
       <c r="T5">
-        <v>0.02348191072361493</v>
+        <v>0.07025582776685034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3352123333333333</v>
+        <v>0.3352123333333334</v>
       </c>
       <c r="H6">
         <v>1.005637</v>
       </c>
       <c r="I6">
-        <v>0.07169363931284717</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="J6">
-        <v>0.07169363931284715</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>35.63792021494733</v>
+        <v>35.63792021494734</v>
       </c>
       <c r="R6">
-        <v>320.7412819345259</v>
+        <v>320.7412819345261</v>
       </c>
       <c r="S6">
-        <v>0.02218817471293369</v>
+        <v>0.1223626188936301</v>
       </c>
       <c r="T6">
-        <v>0.02218817471293369</v>
+        <v>0.1223626188936301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3352123333333333</v>
+        <v>0.3352123333333334</v>
       </c>
       <c r="H7">
         <v>1.005637</v>
       </c>
       <c r="I7">
-        <v>0.07169363931284717</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="J7">
-        <v>0.07169363931284715</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>41.79818073148244</v>
+        <v>44.02625464891511</v>
       </c>
       <c r="R7">
-        <v>376.183626583342</v>
+        <v>396.236291840236</v>
       </c>
       <c r="S7">
-        <v>0.02602355387629854</v>
+        <v>0.1511639227661667</v>
       </c>
       <c r="T7">
-        <v>0.02602355387629854</v>
+        <v>0.1511639227661667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.50738</v>
+        <v>0.5629943333333333</v>
       </c>
       <c r="H8">
-        <v>10.52214</v>
+        <v>1.688983</v>
       </c>
       <c r="I8">
-        <v>0.7501419597322709</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="J8">
-        <v>0.7501419597322708</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>394.62722083296</v>
+        <v>34.36607846323078</v>
       </c>
       <c r="R8">
-        <v>3551.64498749664</v>
+        <v>309.294706169077</v>
       </c>
       <c r="S8">
-        <v>0.2456949695579793</v>
+        <v>0.1179957566687962</v>
       </c>
       <c r="T8">
-        <v>0.2456949695579793</v>
+        <v>0.1179957566687962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.50738</v>
+        <v>0.5629943333333333</v>
       </c>
       <c r="H9">
-        <v>10.52214</v>
+        <v>1.688983</v>
       </c>
       <c r="I9">
-        <v>0.7501419597322709</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="J9">
-        <v>0.7501419597322708</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>372.88523175908</v>
+        <v>59.85444190935932</v>
       </c>
       <c r="R9">
-        <v>3355.96708583172</v>
+        <v>538.689977184234</v>
       </c>
       <c r="S9">
-        <v>0.2321584037519981</v>
+        <v>0.2055099237068843</v>
       </c>
       <c r="T9">
-        <v>0.2321584037519981</v>
+        <v>0.2055099237068843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.50738</v>
+        <v>0.5629943333333333</v>
       </c>
       <c r="H10">
-        <v>10.52214</v>
+        <v>1.688983</v>
       </c>
       <c r="I10">
-        <v>0.7501419597322709</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="J10">
-        <v>0.7501419597322708</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>437.3410180830267</v>
+        <v>73.94278020368043</v>
       </c>
       <c r="R10">
-        <v>3936.06916274724</v>
+        <v>665.4850218331239</v>
       </c>
       <c r="S10">
-        <v>0.2722885864222935</v>
+        <v>0.2538821620180726</v>
       </c>
       <c r="T10">
-        <v>0.2722885864222935</v>
+        <v>0.2538821620180726</v>
       </c>
     </row>
   </sheetData>
